--- a/Excel File/1222pacers.xlsx
+++ b/Excel File/1222pacers.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -156,18 +156,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,14 +169,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -236,54 +220,46 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="46" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="46" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -617,97 +593,97 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="4">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="6">
         <v>1.2708333333333333</v>
       </c>
       <c r="F2" s="4">
         <v>7.9</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1</v>
       </c>
       <c r="H2" s="4">
         <v>5</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>6</v>
       </c>
       <c r="J2" s="4">
         <v>0</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <v>4</v>
       </c>
       <c r="L2" s="4">
         <v>3</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="5">
         <v>0</v>
       </c>
       <c r="N2" s="4">
         <v>2</v>
       </c>
-      <c r="O2" s="6">
+      <c r="O2" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="8">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="7">
         <v>99</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="9">
         <v>1.4652777777777777</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>10.5</v>
       </c>
-      <c r="G3" s="10">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3" s="8">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
         <v>4</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>5</v>
       </c>
-      <c r="J3" s="8">
-        <v>2</v>
-      </c>
-      <c r="K3" s="10">
-        <v>2</v>
-      </c>
-      <c r="L3" s="8">
-        <v>1</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0</v>
-      </c>
-      <c r="N3" s="8">
+      <c r="J3" s="7">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
         <v>3</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="8">
         <v>15</v>
       </c>
     </row>
@@ -715,435 +691,435 @@
       <c r="A4" s="4">
         <v>42</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1.375</v>
       </c>
       <c r="F4" s="4">
         <v>7.2</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>3</v>
       </c>
       <c r="H4" s="4">
         <v>8</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>11</v>
       </c>
       <c r="J4" s="4">
         <v>1</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <v>2</v>
       </c>
       <c r="L4" s="4">
         <v>0</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <v>1</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="7">
         <v>90</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>0.98958333333333337</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G5" s="10">
-        <v>1</v>
-      </c>
-      <c r="H5" s="8">
+      <c r="G5" s="8">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="8">
         <v>6</v>
       </c>
-      <c r="J5" s="8">
-        <v>1</v>
-      </c>
-      <c r="K5" s="10">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
         <v>3</v>
       </c>
-      <c r="L5" s="8">
-        <v>1</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="10">
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="6">
         <v>1.346527777777778</v>
       </c>
       <c r="F6" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>1</v>
       </c>
       <c r="J6" s="4">
         <v>9</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>0</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="8">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="7">
         <v>7</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>0.74375000000000002</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>-0.2</v>
       </c>
-      <c r="G7" s="10">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="10">
-        <v>2</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="10">
+      <c r="G7" s="8">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2</v>
+      </c>
+      <c r="J7" s="7">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>4</v>
       </c>
-      <c r="L7" s="8">
-        <v>1</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0</v>
-      </c>
-      <c r="N7" s="8">
-        <v>0</v>
-      </c>
-      <c r="O7" s="10">
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="8">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <v>0.64513888888888882</v>
       </c>
       <c r="F8" s="4">
         <v>6.2</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="4">
         <v>3</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <v>4</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <v>0</v>
       </c>
       <c r="N8" s="4">
         <v>0</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="7">
         <v>41</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>0.83263888888888893</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>7.9</v>
       </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <v>5</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="8">
         <v>5</v>
       </c>
-      <c r="J9" s="8">
-        <v>2</v>
-      </c>
-      <c r="K9" s="10">
+      <c r="J9" s="7">
+        <v>2</v>
+      </c>
+      <c r="K9" s="8">
         <v>3</v>
       </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>2</v>
-      </c>
-      <c r="O9" s="10">
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
+        <v>2</v>
+      </c>
+      <c r="O9" s="8">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A10" s="4">
         <v>12</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>0.27499999999999997</v>
       </c>
       <c r="F10" s="4">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>0</v>
       </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>0</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <v>0</v>
       </c>
       <c r="L10" s="4">
         <v>1</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <v>0</v>
       </c>
       <c r="N10" s="4">
         <v>1</v>
       </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8">
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="7">
         <v>36</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>1.0562500000000001</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>9.5</v>
       </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
         <v>4</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="8">
         <v>4</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="8">
         <v>5</v>
       </c>
-      <c r="L11" s="8">
-        <v>2</v>
-      </c>
-      <c r="M11" s="10">
-        <v>1</v>
-      </c>
-      <c r="N11" s="8">
-        <v>0</v>
-      </c>
-      <c r="O11" s="10">
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A12" s="4"/>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="6"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="6">
+      <c r="I12" s="5">
         <v>7</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="6"/>
+      <c r="K12" s="5"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="6"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="4"/>
-      <c r="O12" s="6"/>
+      <c r="O12" s="5"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="8">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="7">
         <v>240</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>88.6</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <v>9</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>35</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="8">
         <v>51</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>19</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="8">
         <v>27</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>10</v>
       </c>
-      <c r="M13" s="10">
-        <v>2</v>
-      </c>
-      <c r="N13" s="8">
+      <c r="M13" s="8">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
         <v>10</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13" s="8">
         <v>109</v>
       </c>
     </row>
@@ -1194,379 +1170,379 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A16" s="4">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="6">
         <v>1.7131944444444445</v>
       </c>
       <c r="F16" s="4">
         <v>9.5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>1</v>
       </c>
       <c r="H16" s="4">
         <v>7</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <v>8</v>
       </c>
       <c r="J16" s="4">
         <v>5</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <v>4</v>
       </c>
       <c r="L16" s="4">
         <v>2</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <v>0</v>
       </c>
       <c r="N16" s="4">
         <v>5</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="8">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="7">
         <v>40</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>1.4784722222222222</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="7">
         <v>-1.2</v>
       </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="8">
+      <c r="G17" s="8">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
         <v>4</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>6</v>
       </c>
-      <c r="J17" s="8">
-        <v>1</v>
-      </c>
-      <c r="K17" s="10">
-        <v>1</v>
-      </c>
-      <c r="L17" s="8">
-        <v>1</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0</v>
-      </c>
-      <c r="N17" s="8">
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>3</v>
       </c>
-      <c r="O17" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="O17" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="4">
         <v>44</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="6">
         <v>1.4729166666666667</v>
       </c>
       <c r="F18" s="4">
         <v>22.6</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>1</v>
       </c>
       <c r="H18" s="4">
         <v>4</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <v>5</v>
       </c>
       <c r="J18" s="4">
         <v>8</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <v>4</v>
       </c>
       <c r="L18" s="4">
         <v>0</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <v>1</v>
       </c>
       <c r="N18" s="4">
         <v>4</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="8">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="7">
         <v>33</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>1.2513888888888889</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="7">
         <v>5.5</v>
       </c>
-      <c r="G19" s="10">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8">
+      <c r="G19" s="8">
+        <v>1</v>
+      </c>
+      <c r="H19" s="7">
         <v>7</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <v>8</v>
       </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="10">
+      <c r="J19" s="7">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
         <v>3</v>
       </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="10">
-        <v>1</v>
-      </c>
-      <c r="N19" s="8">
-        <v>2</v>
-      </c>
-      <c r="O19" s="10">
+      <c r="L19" s="7">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="7">
+        <v>2</v>
+      </c>
+      <c r="O19" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A20" s="4">
         <v>21</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="6">
         <v>1.5611111111111111</v>
       </c>
       <c r="F20" s="4">
         <v>18.2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>1</v>
       </c>
       <c r="H20" s="4">
         <v>11</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <v>12</v>
       </c>
       <c r="J20" s="4">
         <v>4</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <v>2</v>
       </c>
       <c r="L20" s="4">
         <v>1</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <v>0</v>
       </c>
       <c r="N20" s="4">
         <v>1</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="8">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A21" s="7">
         <v>5</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="10">
         <v>0.23611111111111113</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="7">
         <v>0.8</v>
       </c>
-      <c r="G21" s="10">
-        <v>1</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="10">
-        <v>2</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="10">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0</v>
-      </c>
-      <c r="N21" s="8">
-        <v>1</v>
-      </c>
-      <c r="O21" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
+      <c r="I21" s="8">
+        <v>2</v>
+      </c>
+      <c r="J21" s="7">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A22" s="4">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="11">
         <v>0.52986111111111112</v>
       </c>
       <c r="F22" s="4">
         <v>0.5</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>0</v>
       </c>
       <c r="H22" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <v>2</v>
       </c>
       <c r="J22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <v>2</v>
       </c>
       <c r="L22" s="4">
         <v>1</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="5">
         <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>2</v>
       </c>
-      <c r="O22" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="8">
+      <c r="O22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A23" s="7">
         <v>7</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="10">
         <v>0.61388888888888882</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="7">
         <v>5.8</v>
       </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
-      <c r="H23" s="8">
+      <c r="G23" s="8">
+        <v>2</v>
+      </c>
+      <c r="H23" s="7">
         <v>5</v>
       </c>
-      <c r="I23" s="10">
+      <c r="I23" s="8">
         <v>7</v>
       </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="10">
-        <v>2</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8">
-        <v>0</v>
-      </c>
-      <c r="O23" s="10">
+      <c r="J23" s="7">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>2</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
+        <v>0</v>
+      </c>
+      <c r="O23" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1574,196 +1550,174 @@
       <c r="A24" s="4">
         <v>0</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="6">
         <v>1.1145833333333333</v>
       </c>
       <c r="F24" s="4">
         <v>7.8</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <v>0</v>
       </c>
       <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <v>2</v>
       </c>
       <c r="J24" s="4">
         <v>0</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <v>3</v>
       </c>
       <c r="L24" s="4">
         <v>0</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24" s="5">
         <v>1</v>
       </c>
       <c r="N24" s="4">
         <v>1</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="8">
-        <v>1</v>
-      </c>
-      <c r="B25" s="9" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A25" s="7">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="10">
         <v>2.8472222222222222E-2</v>
       </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="10">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0</v>
-      </c>
-      <c r="N25" s="8">
-        <v>0</v>
-      </c>
-      <c r="O25" s="10">
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="7">
+        <v>0</v>
+      </c>
+      <c r="K25" s="8">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
+      </c>
+      <c r="M25" s="8">
+        <v>0</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0</v>
+      </c>
+      <c r="O25" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="6"/>
+      <c r="D26" s="5"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="6"/>
+      <c r="G26" s="5"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <v>6</v>
       </c>
       <c r="J26" s="4"/>
-      <c r="K26" s="6"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="6"/>
+      <c r="M26" s="5"/>
       <c r="N26" s="4"/>
-      <c r="O26" s="6"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="A27" s="8"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="8">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="7">
         <v>240</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="7">
         <v>101.4</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>9</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="7">
         <v>43</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>58</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="7">
         <v>20</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>21</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>5</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="8">
         <v>3</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>19</v>
       </c>
-      <c r="O27" s="10">
+      <c r="O27" s="8">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
+      <c r="B28" s="5"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="6"/>
+      <c r="D28" s="5"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
-      <c r="G28" s="6"/>
+      <c r="G28" s="5"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="6"/>
+      <c r="K28" s="5"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="6"/>
+      <c r="M28" s="5"/>
       <c r="N28" s="4"/>
-      <c r="O28" s="6"/>
+      <c r="O28" s="5"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://basketball.realgm.com/player/Avery-Bradley/Summary/2194"/>
-    <hyperlink ref="B3" r:id="rId2" display="http://basketball.realgm.com/player/Jae-Crowder/Summary/22407"/>
-    <hyperlink ref="B4" r:id="rId3" display="http://basketball.realgm.com/player/Al-Horford/Summary/35"/>
-    <hyperlink ref="B5" r:id="rId4" display="http://basketball.realgm.com/player/Amir-Johnson/Summary/147"/>
-    <hyperlink ref="B6" r:id="rId5" display="http://basketball.realgm.com/player/Isaiah-Thomas/Summary/4711"/>
-    <hyperlink ref="B7" r:id="rId6" display="http://basketball.realgm.com/player/Jaylen-Brown/Summary/52544"/>
-    <hyperlink ref="B8" r:id="rId7" display="http://basketball.realgm.com/player/Jonas-Jerebko/Summary/1623"/>
-    <hyperlink ref="B9" r:id="rId8" display="http://basketball.realgm.com/player/Kelly-Olynyk/Summary/8330"/>
-    <hyperlink ref="B10" r:id="rId9" display="http://basketball.realgm.com/player/Terry-Rozier/Summary/24644"/>
-    <hyperlink ref="B11" r:id="rId10" display="http://basketball.realgm.com/player/Marcus-Smart/Summary/24275"/>
-    <hyperlink ref="B16" r:id="rId11" display="http://basketball.realgm.com/player/Paul-George/Summary/2305"/>
-    <hyperlink ref="B17" r:id="rId12" display="http://basketball.realgm.com/player/Glenn-Robinson/Summary/28500"/>
-    <hyperlink ref="B18" r:id="rId13" display="http://basketball.realgm.com/player/Jeff-Teague/Summary/1614"/>
-    <hyperlink ref="B19" r:id="rId14" display="http://basketball.realgm.com/player/Myles-Turner/Summary/52575"/>
-    <hyperlink ref="B20" r:id="rId15" display="http://basketball.realgm.com/player/Thaddeus-Young/Summary/41"/>
-    <hyperlink ref="B21" r:id="rId16" display="http://basketball.realgm.com/player/Lavoy-Allen/Summary/9730"/>
-    <hyperlink ref="B22" r:id="rId17" display="http://basketball.realgm.com/player/Aaron-Brooks/Summary/53"/>
-    <hyperlink ref="B23" r:id="rId18" display="http://basketball.realgm.com/player/Al-Jefferson/Summary/384"/>
-    <hyperlink ref="B24" r:id="rId19" display="http://basketball.realgm.com/player/CJ-Miles/Summary/125"/>
-    <hyperlink ref="B25" r:id="rId20" display="http://basketball.realgm.com/player/Kevin-Seraphin/Summary/2429"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>